--- a/02_MasterWifoMannheim/99_Backup/Course107.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course107.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_2B59D2BFD32051265F592811591688735EB7E004" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E08AE7F0-5693-4303-8670-E1699FC7F91E}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>M Codule</t>
-  </si>
-  <si>
-    <t>MAN 632 Advanced Entrepreneurship</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>By the end of this course students  will have gained fundamental insights into both practical and theoretical perspectives on entrepreneurship  have learned best practices and gained deep insights from top entrepreneurs  will have built a solid entrepreneurial network to advance their own business and careers  have gained knowledge on how investors look at new ventures  will be acquainted with case study training and elements of problem-based learning (PBL)  will have improved their case solving and presentation skills  have a solid foundation e.g. for a seminar or master thesis at our chair - especially for the "Inside the Venture" theses  have improved their problem solving capabilities If you want to develop or advance your own startup project in class: MAN 633 in the Own Venture Track next to this class and/ or MAN 631 next semester. If you want to help advance an existing startup project and get the feeling of what it is like to work in a startup with all the responsibilities this brings along, join Venture Track next to this class or next semester.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:www.mcei.de/teaching / “Student Portal” (more information about the registration process is available here)</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 10</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (50%), Presentation (40%), Peer Evaluation (10%)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Michael Woywode</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.A. K&amp;W, M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ontents: </t>
-  </si>
-  <si>
-    <t>Successful entrepreneurs pursue new business opportunities in a pioneering way. They significantly contribute to innovation, growth and employment generation. entrepreneurs who share their experience and insights in entrepreneurial challenges in real-life case studies. The course takes a four-pronged approach:  We bring distinguished entrepreneurs to class who share their insights, lessons learned and advice on how to build and grow a business from a Consumer (B2C), Business-to-Business (B2B) and Corporate Entrepreneurship (CE) perspective.  We work on real-life case studies with newly developed and most recent Mannheim Business School present in Case Study reflecting your insights with the founders coming to class.  We develop tools and concepts based on an underlying strategic perspective to grow the venture. We will address and connect the four focus areas of 1) Team, Culture and Communication, 2) Growth-Oriented Financing Growth and Exit 4) Corporate Entrepreneurship &amp; Corporate Venturing We will embark on a daylong field trip to PERI entrepreneurship in practice. The blend of unique practical insights from top entrepreneurs, discussing concepts on how to advance the business with them, and theoretical insights and tools, will enable you with outstanding skills and a great network. This will support you in advancing your own venture and/or your corporate career in the future. also gain fundamental insights into theoretical perspectives on entrepreneurship to prepare your master’s thesis and/ or future research career.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,137 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Modul</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAN 632 Advanced Entrepreneurship</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Successful entrepreneurs pursue new business opportunities in a pioneering way. They significantly contribute to innovation, growth and employment generation. entrepreneurs who share their experience and insights in entrepreneurial challenges in real-life case studies. The course takes a four-pronged approach:  We bring distinguished entrepreneurs to class who share their insights, lessons learned and advice on how to build and grow a business from a Consumer (B2C), Business-to-Business (B2B) and Corporate Entrepreneurship (CE) perspective.  We work on real-life case studies with newly developed and most recent Mannheim Business School present in Case Study reflecting your insights with the founders coming to class.  We develop tools and concepts based on an underlying strategic perspective to grow the venture. We will address and connect the four focus areas of 1) Team, Culture and Communication, 2) Growth-Oriented Financing Growth and Exit 4) Corporate Entrepreneurship &amp; Corporate Venturing We will embark on a daylong field trip to PERI entrepreneurship in practice. The blend of unique practical insights from top entrepreneurs, discussing concepts on how to advance the business with them, and theoretical insights and tools, will enable you with outstanding skills and a great network. This will support you in advancing your own venture and/or your corporate career in the future. also gain fundamental insights into theoretical perspectives on entrepreneurship to prepare your master’s thesis and/ or future research career.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>By the end of this course students  will have gained fundamental insights into both practical and theoretical perspectives on entrepreneurship  have learned best practices and gained deep insights from top entrepreneurs  will have built a solid entrepreneurial network to advance their own business and careers  have gained knowledge on how investors look at new ventures  will be acquainted with case study training and elements of problem-based learning (PBL)  will have improved their case solving and presentation skills  have a solid foundation e.g. for a seminar or master thesis at our chair - especially for the "Inside the Venture" theses  have improved their problem solving capabilities If you want to develop or advance your own startup project in class: MAN 633 in the Own Venture Track next to this class and/ or MAN 631 next semester. If you want to help advance an existing startup project and get the feeling of what it is like to work in a startup with all the responsibilities this brings along, join Venture Track next to this class or next semester.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:www.mcei.de/teaching / “Student Portal” (more information about the registration process is available here)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (50%), Presentation (40%), Peer Evaluation (10%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Michael Woywode</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.A. K&amp;W, M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
